--- a/public/template/Template User.xlsx
+++ b/public/template/Template User.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irfansbom\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sites\siemas\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4833942-6918-4763-BA71-062E02526A50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88498711-6304-4298-958B-8B8C1201C0A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E459C545-2E30-4B24-B29B-ECD902585DEC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>username</t>
   </si>
@@ -91,27 +91,16 @@
   </si>
   <si>
     <t>Idris</t>
-  </si>
-  <si>
-    <t>ari.rismansyah</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,23 +123,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -466,21 +453,22 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -503,7 +491,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
@@ -512,21 +500,18 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
@@ -535,7 +520,7 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
@@ -544,15 +529,11 @@
       <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
-        <v>20</v>
+      <c r="G3" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{6A8949BD-146A-43AA-83EF-8649F0CFFBEB}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{0A939084-A646-4DF9-8555-DA144439DEDF}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/public/template/Template User.xlsx
+++ b/public/template/Template User.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sites\siemas\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88498711-6304-4298-958B-8B8C1201C0A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921D1383-0E44-4153-A307-A5F5F0FD6179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E459C545-2E30-4B24-B29B-ECD902585DEC}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="7785" xr2:uid="{E459C545-2E30-4B24-B29B-ECD902585DEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,20 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
-  <si>
-    <t>username</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>email</t>
   </si>
@@ -48,9 +40,6 @@
     <t>level</t>
   </si>
   <si>
-    <t>alif</t>
-  </si>
-  <si>
     <t>alif@bps.go.id</t>
   </si>
   <si>
@@ -78,13 +67,7 @@
     <t>idris@bps.go.id</t>
   </si>
   <si>
-    <t>idris</t>
-  </si>
-  <si>
     <t>indri</t>
-  </si>
-  <si>
-    <t>pengawas</t>
   </si>
   <si>
     <t>Alif</t>
@@ -126,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -135,7 +118,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,29 +432,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE739395-33C5-468F-80EE-30823CB3162B}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -481,56 +461,41 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -550,22 +515,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
